--- a/Excel/wfp_figures.xlsx
+++ b/Excel/wfp_figures.xlsx
@@ -2,20 +2,21 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t\Documents\GitHub\UgandaFFP\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim\Documents\GitHub\UgandaFFP\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10356" windowHeight="6336"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10356" windowHeight="6336" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="FCS_2014" sheetId="1" r:id="rId1"/>
-    <sheet name="Maize Prices" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="Maize Prices" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="132">
   <si>
     <t>district</t>
   </si>
@@ -109,13 +110,328 @@
   </si>
   <si>
     <t>http://documents.wfp.org/stellent/groups/public/documents/ena/wfp276266.pdf</t>
+  </si>
+  <si>
+    <t>June_2014</t>
+  </si>
+  <si>
+    <t>kaabong</t>
+  </si>
+  <si>
+    <t>kotido</t>
+  </si>
+  <si>
+    <t>moroto</t>
+  </si>
+  <si>
+    <t>nakapiripirit</t>
+  </si>
+  <si>
+    <t>napak</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>fcs_poor</t>
+  </si>
+  <si>
+    <t>fcs_bdln</t>
+  </si>
+  <si>
+    <t>fcs_accp</t>
+  </si>
+  <si>
+    <t>boys_n</t>
+  </si>
+  <si>
+    <t>girls_n</t>
+  </si>
+  <si>
+    <t>District (6-59 months)</t>
+  </si>
+  <si>
+    <t>GAM</t>
+  </si>
+  <si>
+    <t>SAM</t>
+  </si>
+  <si>
+    <t>Stunting</t>
+  </si>
+  <si>
+    <t>Underweight</t>
+  </si>
+  <si>
+    <t>Abim (N=679)</t>
+  </si>
+  <si>
+    <t>8.4 (5.8 - 12.0)</t>
+  </si>
+  <si>
+    <t>2.2 (1.1 - 4.2)</t>
+  </si>
+  <si>
+    <t>23 (19.8 - 26.5)</t>
+  </si>
+  <si>
+    <t>14.9 (12.1 - 18.2)</t>
+  </si>
+  <si>
+    <t>Amudat (N=439)</t>
+  </si>
+  <si>
+    <t>11.2 (8.2 - 15.0)</t>
+  </si>
+  <si>
+    <t>1.8 (0.9 - 3.5)</t>
+  </si>
+  <si>
+    <t>25.1 (21.0 - 29.6)</t>
+  </si>
+  <si>
+    <t>16.9 (12.9 - 21.8)</t>
+  </si>
+  <si>
+    <t>Kaabong (N=689)</t>
+  </si>
+  <si>
+    <t>13.5 (10.2 - 17.7)</t>
+  </si>
+  <si>
+    <t>3.3 (1.9 - 5.7)</t>
+  </si>
+  <si>
+    <t>27.2 (23.0 - 31.9)</t>
+  </si>
+  <si>
+    <t>21.6 (18.4 - 25.1)</t>
+  </si>
+  <si>
+    <t>Kotido (N=657)</t>
+  </si>
+  <si>
+    <t>11.9 (9.0 - 15.5)</t>
+  </si>
+  <si>
+    <t>2.4 (1.4 - 4.2)</t>
+  </si>
+  <si>
+    <t>28.6 (24.0 - 33.8)</t>
+  </si>
+  <si>
+    <t>21.5 (18.4 - 24.9)</t>
+  </si>
+  <si>
+    <t>Moroto (N=608)</t>
+  </si>
+  <si>
+    <t>22.2 (18.3 - 26.7)</t>
+  </si>
+  <si>
+    <t>5.6 (3.7 - 8.4)</t>
+  </si>
+  <si>
+    <t>42.2 (36.4 - 48.3)</t>
+  </si>
+  <si>
+    <t>40.1 (35.2 - 45.2)</t>
+  </si>
+  <si>
+    <t>Nakapiripirit (N=536)</t>
+  </si>
+  <si>
+    <t>14.6 (11.4 - 18.4)</t>
+  </si>
+  <si>
+    <t>3.2 (1.9 - 5.2)</t>
+  </si>
+  <si>
+    <t>31.6 (27.4 - 36.2)</t>
+  </si>
+  <si>
+    <t>26.6 (23.0 - 30.5)</t>
+  </si>
+  <si>
+    <t>Napak (N=682)</t>
+  </si>
+  <si>
+    <t>13.2 (9.7 - 17.7)</t>
+  </si>
+  <si>
+    <t>2.3 (1.1 - 4.7)</t>
+  </si>
+  <si>
+    <t>47.2 (42.0 - 52.2)</t>
+  </si>
+  <si>
+    <t>33.8 (29.0 - 38.9)</t>
+  </si>
+  <si>
+    <t>Combined (N=2561)</t>
+  </si>
+  <si>
+    <t>13.4 (12.1 - 14.7)</t>
+  </si>
+  <si>
+    <t>2.8 (2.3 - 3.4)</t>
+  </si>
+  <si>
+    <t>32.3 (30.3 - 34.4)</t>
+  </si>
+  <si>
+    <t>25.0 (23.3 - 26.8)</t>
+  </si>
+  <si>
+    <t>April 2015` (aug-dec 2014) ~ 3700 hh</t>
+  </si>
+  <si>
+    <t>March 2014, (july-aug 2013)</t>
+  </si>
+  <si>
+    <t>Abim (N=559)</t>
+  </si>
+  <si>
+    <t>6.2 (4.5 - 8.6)</t>
+  </si>
+  <si>
+    <t>1.5 (0.7 - 2.9)</t>
+  </si>
+  <si>
+    <t>31.8 (28.0 - 35.8)</t>
+  </si>
+  <si>
+    <t>17.1 (14.2 - 20.4)</t>
+  </si>
+  <si>
+    <t>Nakapirit (N=399)</t>
+  </si>
+  <si>
+    <t>11.6 (8.8 - 15.1)</t>
+  </si>
+  <si>
+    <t>5.5 (3.7 - 8.2)</t>
+  </si>
+  <si>
+    <t>43.0 (38.2 - 48.0)</t>
+  </si>
+  <si>
+    <t>30.3 (26.0 - 35.1)</t>
+  </si>
+  <si>
+    <t>Napak (N=410)</t>
+  </si>
+  <si>
+    <t>11.8 (9.0 - 15.3)</t>
+  </si>
+  <si>
+    <t>2.5 (1.3 - 4.5)</t>
+  </si>
+  <si>
+    <t>36.1 (31.6 - 40.9)</t>
+  </si>
+  <si>
+    <t>27.4 (23.3 - 31.9)</t>
+  </si>
+  <si>
+    <t>Kotido (N=460)</t>
+  </si>
+  <si>
+    <t>11.4 (8.8 - 14.6)</t>
+  </si>
+  <si>
+    <t>2.9 (1.7 - 4.8)</t>
+  </si>
+  <si>
+    <t>37.1 (32.8 - 41.6)</t>
+  </si>
+  <si>
+    <t>24.8 (21.1 - 29.0)</t>
+  </si>
+  <si>
+    <t>Amudat (N=432)</t>
+  </si>
+  <si>
+    <t>12.2 (9.4 - 15.7)</t>
+  </si>
+  <si>
+    <t>3.8 (2.3 - 6.0)</t>
+  </si>
+  <si>
+    <t>27.8 (23.8 - 32.3)</t>
+  </si>
+  <si>
+    <t>21.8 (18.2 - 25.9)</t>
+  </si>
+  <si>
+    <t>Moroto (N=448)</t>
+  </si>
+  <si>
+    <t>18.5 (15.1 - 22.3)</t>
+  </si>
+  <si>
+    <t>2.7 (1.6 - 4.7)</t>
+  </si>
+  <si>
+    <t>47.4 (42.7 - 52.1)</t>
+  </si>
+  <si>
+    <t>42.0 (37.5 - 46.7)</t>
+  </si>
+  <si>
+    <t>Kaabong (N=526)</t>
+  </si>
+  <si>
+    <t>20.2 (16.9 - 23.9)</t>
+  </si>
+  <si>
+    <t>6.1 (4.3 - 8.5)</t>
+  </si>
+  <si>
+    <t>37.0 (32.9 - 41.2)</t>
+  </si>
+  <si>
+    <t>34.7 (30.8 - 38.9)</t>
+  </si>
+  <si>
+    <t>Combined (N=3234)</t>
+  </si>
+  <si>
+    <t>12.8 (11.7 - 14.0)</t>
+  </si>
+  <si>
+    <t>3.2 (2.7 - 3.9)</t>
+  </si>
+  <si>
+    <t>36.9 (35.2 - 38.6)</t>
+  </si>
+  <si>
+    <t>28.0 (26.5 - 29.6)</t>
+  </si>
+  <si>
+    <t>December 2014 with assessment conducted in May 2014</t>
+  </si>
+  <si>
+    <t>n = 4105</t>
+  </si>
+  <si>
+    <t>December 2014 Report</t>
+  </si>
+  <si>
+    <t>Food security and nutrition assessment (FSNA) 2014</t>
+  </si>
+  <si>
+    <t>Food Seucrity Assessment (March 2014)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="###0;###0"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
       <color theme="1"/>
@@ -123,16 +439,66 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="8"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF1F1F1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9E1F3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEBF0F8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -140,14 +506,75 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="17" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -464,8 +891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.25"/>
@@ -853,6 +1280,729 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="34.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="13"/>
+    <col min="3" max="3" width="11.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="9.140625" style="13"/>
+    <col min="9" max="9" width="19" style="13" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" style="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="10.8" x14ac:dyDescent="0.2">
+      <c r="A3" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="13">
+        <v>400</v>
+      </c>
+      <c r="C3" s="13">
+        <v>34</v>
+      </c>
+      <c r="D3" s="13">
+        <v>41</v>
+      </c>
+      <c r="E3" s="13">
+        <v>25</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="10.8" x14ac:dyDescent="0.2">
+      <c r="A4" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="13">
+        <v>390</v>
+      </c>
+      <c r="C4" s="13">
+        <v>7</v>
+      </c>
+      <c r="D4" s="13">
+        <v>14</v>
+      </c>
+      <c r="E4" s="13">
+        <v>79</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="10.8" x14ac:dyDescent="0.2">
+      <c r="A5" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="13">
+        <v>220</v>
+      </c>
+      <c r="C5" s="13">
+        <v>45</v>
+      </c>
+      <c r="D5" s="13">
+        <v>25</v>
+      </c>
+      <c r="E5" s="13">
+        <v>30</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="10.8" x14ac:dyDescent="0.2">
+      <c r="A6" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="13">
+        <v>190</v>
+      </c>
+      <c r="C6" s="13">
+        <v>24</v>
+      </c>
+      <c r="D6" s="13">
+        <v>32</v>
+      </c>
+      <c r="E6" s="13">
+        <v>44</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="10.8" x14ac:dyDescent="0.2">
+      <c r="A7" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="13">
+        <v>230</v>
+      </c>
+      <c r="C7" s="13">
+        <v>7</v>
+      </c>
+      <c r="D7" s="13">
+        <v>17</v>
+      </c>
+      <c r="E7" s="13">
+        <v>76</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="10.8" x14ac:dyDescent="0.2">
+      <c r="A8" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="13">
+        <v>240</v>
+      </c>
+      <c r="C8" s="13">
+        <v>19</v>
+      </c>
+      <c r="D8" s="13">
+        <v>22</v>
+      </c>
+      <c r="E8" s="13">
+        <v>59</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="10.8" x14ac:dyDescent="0.2">
+      <c r="A9" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="13">
+        <v>230</v>
+      </c>
+      <c r="C9" s="13">
+        <v>39</v>
+      </c>
+      <c r="D9" s="13">
+        <v>17</v>
+      </c>
+      <c r="E9" s="13">
+        <v>44</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="10.8" x14ac:dyDescent="0.2">
+      <c r="I10" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="10.8" x14ac:dyDescent="0.2">
+      <c r="I11" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="13">
+        <v>26.3</v>
+      </c>
+      <c r="C13" s="13">
+        <v>45.3</v>
+      </c>
+      <c r="D13" s="13">
+        <v>28.4</v>
+      </c>
+      <c r="E13" s="10">
+        <v>336</v>
+      </c>
+      <c r="F13" s="10">
+        <v>353</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="L13" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="M13" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="13">
+        <v>5.5</v>
+      </c>
+      <c r="C14" s="13">
+        <v>21.2</v>
+      </c>
+      <c r="D14" s="13">
+        <v>73.2</v>
+      </c>
+      <c r="E14" s="12">
+        <v>227</v>
+      </c>
+      <c r="F14" s="12">
+        <v>213</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="K14" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="L14" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="M14" s="11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="13">
+        <v>30.1</v>
+      </c>
+      <c r="C15" s="13">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="D15" s="13">
+        <v>31.2</v>
+      </c>
+      <c r="E15" s="12">
+        <v>344</v>
+      </c>
+      <c r="F15" s="12">
+        <v>355</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="K15" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="L15" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="M15" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="13">
+        <v>26.9</v>
+      </c>
+      <c r="C16" s="13">
+        <v>46.9</v>
+      </c>
+      <c r="D16" s="13">
+        <v>26.2</v>
+      </c>
+      <c r="E16" s="12">
+        <v>350</v>
+      </c>
+      <c r="F16" s="12">
+        <v>315</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="K16" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="L16" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="M16" s="11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="13">
+        <v>13</v>
+      </c>
+      <c r="C17" s="13">
+        <v>28.1</v>
+      </c>
+      <c r="D17" s="13">
+        <v>58.9</v>
+      </c>
+      <c r="E17" s="12">
+        <v>305</v>
+      </c>
+      <c r="F17" s="12">
+        <v>310</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="K17" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="L17" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="M17" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="13">
+        <v>27.5</v>
+      </c>
+      <c r="C18" s="13">
+        <v>38.9</v>
+      </c>
+      <c r="D18" s="13">
+        <v>33.6</v>
+      </c>
+      <c r="E18" s="12">
+        <v>257</v>
+      </c>
+      <c r="F18" s="12">
+        <v>285</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="K18" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="L18" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="M18" s="11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="13">
+        <v>31</v>
+      </c>
+      <c r="C19" s="13">
+        <v>43.5</v>
+      </c>
+      <c r="D19" s="13">
+        <v>25.5</v>
+      </c>
+      <c r="E19" s="12">
+        <v>364</v>
+      </c>
+      <c r="F19" s="12">
+        <v>332</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="J19" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="K19" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="L19" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="M19" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="I20" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="K20" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="L20" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="M20" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" s="13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="13">
+        <v>28</v>
+      </c>
+      <c r="C29" s="13">
+        <v>36</v>
+      </c>
+      <c r="D29" s="13">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="13">
+        <v>6</v>
+      </c>
+      <c r="C30" s="13">
+        <v>13</v>
+      </c>
+      <c r="D30" s="13">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="13">
+        <v>14</v>
+      </c>
+      <c r="C31" s="13">
+        <v>47</v>
+      </c>
+      <c r="D31" s="13">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="13">
+        <v>31</v>
+      </c>
+      <c r="C32" s="13">
+        <v>27</v>
+      </c>
+      <c r="D32" s="13">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="13">
+        <v>31</v>
+      </c>
+      <c r="C33" s="13">
+        <v>36</v>
+      </c>
+      <c r="D33" s="13">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="13">
+        <v>31</v>
+      </c>
+      <c r="C34" s="13">
+        <v>23</v>
+      </c>
+      <c r="D34" s="13">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="13">
+        <v>24</v>
+      </c>
+      <c r="C35" s="13">
+        <v>41</v>
+      </c>
+      <c r="D35" s="13">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Excel/wfp_figures.xlsx
+++ b/Excel/wfp_figures.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10356" windowHeight="6336" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10356" windowHeight="6336" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="FCS_2014" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
-    <sheet name="Maize Prices" sheetId="2" r:id="rId3"/>
+    <sheet name="Timeline" sheetId="4" r:id="rId3"/>
+    <sheet name="Maize Prices" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="149">
   <si>
     <t>district</t>
   </si>
@@ -422,6 +423,57 @@
   </si>
   <si>
     <t>Food Seucrity Assessment (March 2014)</t>
+  </si>
+  <si>
+    <t>jan</t>
+  </si>
+  <si>
+    <t>feb</t>
+  </si>
+  <si>
+    <t>mar</t>
+  </si>
+  <si>
+    <t>apr</t>
+  </si>
+  <si>
+    <t>may</t>
+  </si>
+  <si>
+    <t>jun</t>
+  </si>
+  <si>
+    <t>jul</t>
+  </si>
+  <si>
+    <t>aug</t>
+  </si>
+  <si>
+    <t>sep</t>
+  </si>
+  <si>
+    <t>oct</t>
+  </si>
+  <si>
+    <t>nov</t>
+  </si>
+  <si>
+    <t>dec</t>
+  </si>
+  <si>
+    <t>`</t>
+  </si>
+  <si>
+    <t>Food Security Assessment 1</t>
+  </si>
+  <si>
+    <t>WFP &amp; UNICEF FSNA</t>
+  </si>
+  <si>
+    <t>Karamoja FSA</t>
+  </si>
+  <si>
+    <t>Food for peace assessment</t>
   </si>
 </sst>
 </file>
@@ -429,7 +481,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="###0;###0"/>
+    <numFmt numFmtId="164" formatCode="###0;###0"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -460,7 +512,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -494,6 +546,42 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFEBF0F8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE65829"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -539,7 +627,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -564,23 +652,34 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="17" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFE65829"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1282,9 +1381,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2003,6 +2100,248 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AK7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="5" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="4.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="Y1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="B2" s="16">
+        <v>2013</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="17">
+        <v>2014</v>
+      </c>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="17"/>
+      <c r="X2" s="17"/>
+      <c r="Y2" s="17"/>
+      <c r="Z2" s="15">
+        <v>2015</v>
+      </c>
+      <c r="AA2" s="15"/>
+      <c r="AB2" s="15"/>
+      <c r="AC2" s="15"/>
+      <c r="AD2" s="15"/>
+      <c r="AE2" s="15"/>
+      <c r="AF2" s="15"/>
+      <c r="AG2" s="15"/>
+      <c r="AH2" s="15"/>
+      <c r="AI2" s="15"/>
+      <c r="AJ2" s="15"/>
+      <c r="AK2" s="15"/>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F3" t="s">
+        <v>136</v>
+      </c>
+      <c r="G3" t="s">
+        <v>137</v>
+      </c>
+      <c r="H3" t="s">
+        <v>138</v>
+      </c>
+      <c r="I3" t="s">
+        <v>139</v>
+      </c>
+      <c r="J3" t="s">
+        <v>140</v>
+      </c>
+      <c r="K3" t="s">
+        <v>141</v>
+      </c>
+      <c r="L3" t="s">
+        <v>142</v>
+      </c>
+      <c r="M3" t="s">
+        <v>143</v>
+      </c>
+      <c r="N3" t="s">
+        <v>132</v>
+      </c>
+      <c r="O3" t="s">
+        <v>133</v>
+      </c>
+      <c r="P3" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>135</v>
+      </c>
+      <c r="R3" t="s">
+        <v>136</v>
+      </c>
+      <c r="S3" t="s">
+        <v>137</v>
+      </c>
+      <c r="T3" t="s">
+        <v>138</v>
+      </c>
+      <c r="U3" t="s">
+        <v>139</v>
+      </c>
+      <c r="V3" t="s">
+        <v>140</v>
+      </c>
+      <c r="W3" t="s">
+        <v>141</v>
+      </c>
+      <c r="X3" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>143</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>136</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>137</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>138</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>139</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>140</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>141</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>142</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>145</v>
+      </c>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="P5" s="19"/>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>146</v>
+      </c>
+      <c r="S6" s="18"/>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>147</v>
+      </c>
+      <c r="O7" s="18">
+        <v>1900</v>
+      </c>
+      <c r="P7" s="20">
+        <v>1900</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
